--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value601.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value601.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9600896349175952</v>
+        <v>1.076425194740295</v>
       </c>
       <c r="B1">
-        <v>0.9848054266748436</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.9055887779593766</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9845995496674451</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.207307883146061</v>
+        <v>1.152238607406616</v>
       </c>
     </row>
   </sheetData>
